--- a/src/test/resources/devils_burdens/mass_start_3_4/dnf_leg_4/master.xlsx
+++ b/src/test/resources/devils_burdens/mass_start_3_4/dnf_leg_4/master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gnck/Documents/Code/race-timing/src/test/resources/devils_burdens/mass_start_3_4/dnf_leg_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1A2367-2D49-6C4A-A943-DC0208A33222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57D72AA-7A69-4646-A691-AEE113030BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="500" windowWidth="25840" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52400" yWindow="6380" windowWidth="43600" windowHeight="24060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple_detailed_2020" sheetId="1" r:id="rId1"/>
@@ -691,13 +691,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1055,15 +1057,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="19" max="19" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -1164,22 +1167,22 @@
         <v>20</v>
       </c>
       <c r="L2" s="1">
-        <f>M2-J2</f>
+        <f t="shared" ref="L2:L3" si="0">S2-MIN(L$10,J2)</f>
         <v>4.7280092592592589E-2</v>
       </c>
       <c r="M2" s="1">
-        <f>S2+L12</f>
+        <f t="shared" ref="M2:M6" si="1">J2+L2</f>
         <v>0.10769675925925926</v>
       </c>
       <c r="N2" t="s">
         <v>21</v>
       </c>
       <c r="O2" s="1">
-        <f>P2-M2</f>
+        <f t="shared" ref="O2:O6" si="2">T2-MIN(O$10,S2)</f>
         <v>5.0613425925925937E-2</v>
       </c>
       <c r="P2" s="1">
-        <f>T2+O12</f>
+        <f t="shared" ref="P2:P3" si="3">M2+O2</f>
         <v>0.15831018518518519</v>
       </c>
       <c r="Q2" s="1">
@@ -1212,7 +1215,7 @@
         <v>24</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F6" si="0">G3</f>
+        <f>G3</f>
         <v>3.0462962962962966E-2</v>
       </c>
       <c r="G3" s="1">
@@ -1223,7 +1226,7 @@
         <v>25</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I6" si="1">J3-G3</f>
+        <f>J3-G3</f>
         <v>4.1157407407407406E-2</v>
       </c>
       <c r="J3" s="1">
@@ -1234,27 +1237,27 @@
         <v>26</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L6" si="2">M3-J3</f>
+        <f t="shared" si="0"/>
         <v>4.5532407407407424E-2</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M6" si="3">S3+L13</f>
+        <f t="shared" si="1"/>
         <v>0.1171527777777778</v>
       </c>
       <c r="N3" t="s">
         <v>27</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O6" si="4">P3-M3</f>
-        <v>0.89165509259259246</v>
+        <f t="shared" si="2"/>
+        <v>0.89195601851851847</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P6" si="5">T3+O13</f>
-        <v>1.0088078703703702</v>
+        <f t="shared" si="3"/>
+        <v>1.0091087962962964</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q6" si="6">F3+I3+L3+O3</f>
-        <v>1.0088078703703702</v>
+        <f>F3+I3+L3+O3</f>
+        <v>1.0091087962962964</v>
       </c>
       <c r="S3" s="1">
         <f>B22</f>
@@ -1270,19 +1273,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="0"/>
+        <f>G4</f>
         <v>3.123842592592593E-2</v>
       </c>
       <c r="G4" s="1">
@@ -1290,10 +1293,10 @@
         <v>3.123842592592593E-2</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="1"/>
+        <f>J4-G4</f>
         <v>4.0844907407407399E-2</v>
       </c>
       <c r="J4" s="1">
@@ -1301,30 +1304,30 @@
         <v>7.2083333333333333E-2</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="2"/>
+        <f>S4-MIN(L$10,J4)</f>
         <v>4.5821759259259257E-2</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="3"/>
+        <f>J4+L4</f>
         <v>0.11790509259259259</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" si="4"/>
-        <v>5.0335648148148157E-2</v>
+        <f>T4-MIN(O$10,S4)</f>
+        <v>5.0347222222222224E-2</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" si="5"/>
-        <v>0.16824074074074075</v>
+        <f>M4+O4</f>
+        <v>0.16825231481481481</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" si="6"/>
-        <v>0.16824074074074075</v>
+        <f>F4+I4+L4+O4</f>
+        <v>0.16825231481481481</v>
       </c>
       <c r="S4" s="1">
         <f>B26</f>
@@ -1340,19 +1343,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="0"/>
+        <f>G5</f>
         <v>3.1655092592592596E-2</v>
       </c>
       <c r="G5" s="1">
@@ -1360,10 +1363,10 @@
         <v>3.1655092592592596E-2</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="1"/>
+        <f>J5-G5</f>
         <v>4.2916666666666659E-2</v>
       </c>
       <c r="J5" s="1">
@@ -1371,29 +1374,29 @@
         <v>7.4571759259259254E-2</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L5" s="1">
+        <f t="shared" ref="L5:L6" si="4">S5-MIN(L$10,J5)</f>
+        <v>4.5949074074074073E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12052083333333333</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="1">
         <f t="shared" si="2"/>
-        <v>4.5949074074074073E-2</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" si="3"/>
-        <v>0.12052083333333333</v>
-      </c>
-      <c r="N5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" si="4"/>
         <v>5.0937499999999997E-2</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="P5:P6" si="5">M5+O5</f>
         <v>0.17145833333333332</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="6"/>
+        <f>F5+I5+L5+O5</f>
         <v>0.17145833333333332</v>
       </c>
       <c r="S5" s="1">
@@ -1407,19 +1410,19 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="0"/>
+        <f>G6</f>
         <v>3.1747685185185184E-2</v>
       </c>
       <c r="G6" s="1">
@@ -1427,10 +1430,10 @@
         <v>3.1747685185185184E-2</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="1"/>
+        <f>J6-G6</f>
         <v>4.3067129629629636E-2</v>
       </c>
       <c r="J6" s="1">
@@ -1438,29 +1441,29 @@
         <v>7.481481481481482E-2</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L6" s="1">
+        <f t="shared" si="4"/>
+        <v>4.6747685185185184E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1215625</v>
+      </c>
+      <c r="N6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="1">
         <f t="shared" si="2"/>
-        <v>4.6747685185185184E-2</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" si="3"/>
-        <v>0.1215625</v>
-      </c>
-      <c r="N6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="4"/>
-        <v>5.1296296296296298E-2</v>
+        <v>5.1296296296296312E-2</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="5"/>
         <v>0.1728587962962963</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="6"/>
+        <f>F6+I6+L6+O6</f>
         <v>0.1728587962962963</v>
       </c>
       <c r="S6" s="1">
@@ -1498,53 +1501,29 @@
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="1">
-        <f>MAX(0,J2-L$10)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <f>MAX(0,M2-O$10)</f>
-        <v>0</v>
-      </c>
+      <c r="L12" s="1"/>
+      <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="1">
-        <f t="shared" ref="L13:L16" si="7">MAX(0,J3-L$10)</f>
-        <v>9.1203703703703759E-3</v>
-      </c>
-      <c r="O13" s="1">
-        <f t="shared" ref="O13:O16" si="8">MAX(0,M3-O$10)</f>
-        <v>8.8194444444444631E-3</v>
-      </c>
+      <c r="L13" s="1"/>
+      <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="L14" s="1">
-        <f t="shared" si="7"/>
-        <v>9.5833333333333326E-3</v>
-      </c>
-      <c r="O14" s="1">
-        <f t="shared" si="8"/>
-        <v>9.5717592592592521E-3</v>
-      </c>
+      <c r="L14" s="1"/>
+      <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L15" s="1">
-        <f t="shared" si="7"/>
-        <v>1.2071759259259254E-2</v>
-      </c>
-      <c r="O15" s="1">
-        <f t="shared" si="8"/>
-        <v>1.218749999999999E-2</v>
-      </c>
+      <c r="L15" s="1"/>
+      <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -1560,17 +1539,11 @@
       <c r="E16" s="1">
         <v>2.9664351851851855E-2</v>
       </c>
-      <c r="L16" s="1">
-        <f t="shared" si="7"/>
-        <v>1.231481481481482E-2</v>
-      </c>
-      <c r="O16" s="1">
-        <f t="shared" si="8"/>
-        <v>1.3229166666666667E-2</v>
-      </c>
+      <c r="L16" s="1"/>
+      <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -1584,7 +1557,7 @@
         <v>6.0416666666666667E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -1598,7 +1571,7 @@
         <v>0.10769675925925926</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -1612,7 +1585,7 @@
         <v>0.15831018518518519</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -1626,7 +1599,7 @@
         <v>3.0462962962962966E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>2</v>
       </c>
@@ -1640,7 +1613,7 @@
         <v>7.1620370370370376E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>2</v>
       </c>
@@ -1653,8 +1626,15 @@
       <c r="E22" s="1">
         <v>0.10803240740740742</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>2</v>
       </c>
@@ -1667,8 +1647,15 @@
       <c r="E23" s="1">
         <v>0.99998842592592585</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K23" s="6"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -1681,8 +1668,15 @@
       <c r="E24" s="1">
         <v>3.123842592592593E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K24" s="6"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -1695,8 +1689,15 @@
       <c r="E25" s="1">
         <v>7.2083333333333333E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K25" s="6"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>3</v>
       </c>
@@ -1709,8 +1710,15 @@
       <c r="E26" s="1">
         <v>0.10832175925925926</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K26" s="6"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>3</v>
       </c>
@@ -1724,7 +1732,7 @@
         <v>0.15866898148148148</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>4</v>
       </c>
@@ -1738,7 +1746,7 @@
         <v>3.1655092592592596E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>4</v>
       </c>
@@ -1752,7 +1760,7 @@
         <v>7.4571759259259254E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -1766,7 +1774,7 @@
         <v>0.10844907407407407</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>4</v>
       </c>
@@ -1780,7 +1788,7 @@
         <v>0.15927083333333333</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>5</v>
       </c>
@@ -1837,8 +1845,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D16:E34">
-    <sortCondition ref="D16:D34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:T6">
+    <sortCondition ref="B2:B6"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/test/resources/devils_burdens/mass_start_3_4/dnf_leg_4/master.xlsx
+++ b/src/test/resources/devils_burdens/mass_start_3_4/dnf_leg_4/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gnck/Documents/Code/race-timing/src/test/resources/devils_burdens/mass_start_3_4/dnf_leg_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57D72AA-7A69-4646-A691-AEE113030BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F2FE54-BE59-6746-BBA5-5485D967F66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52400" yWindow="6380" windowWidth="43600" windowHeight="24060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple_detailed_2020" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Pos</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Leg 4</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>Anster Haddies Ladies B</t>
@@ -691,15 +688,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1055,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1066,10 +1061,10 @@
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="19" max="20" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1116,19 +1111,16 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="R1" t="s">
+        <v>49</v>
       </c>
       <c r="S1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1136,13 +1128,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
       </c>
       <c r="F2" s="1">
         <f>G2</f>
@@ -1153,7 +1145,7 @@
         <v>2.9664351851851855E-2</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1">
         <f>J2-G2</f>
@@ -1164,41 +1156,37 @@
         <v>6.0416666666666667E-2</v>
       </c>
       <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1">
+        <f>R2-MIN(L$10,J2)</f>
+        <v>4.7280092592592589E-2</v>
+      </c>
+      <c r="M2" s="1">
+        <f t="shared" ref="M2:M6" si="0">J2+L2</f>
+        <v>0.10769675925925926</v>
+      </c>
+      <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="1">
-        <f t="shared" ref="L2:L3" si="0">S2-MIN(L$10,J2)</f>
-        <v>4.7280092592592589E-2</v>
-      </c>
-      <c r="M2" s="1">
-        <f t="shared" ref="M2:M6" si="1">J2+L2</f>
-        <v>0.10769675925925926</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
       <c r="O2" s="1">
-        <f t="shared" ref="O2:O6" si="2">T2-MIN(O$10,S2)</f>
+        <f>S2-MIN(O$10,R2)</f>
         <v>5.0613425925925937E-2</v>
       </c>
       <c r="P2" s="1">
-        <f t="shared" ref="P2:P3" si="3">M2+O2</f>
+        <f t="shared" ref="P2:P3" si="1">M2+O2</f>
         <v>0.15831018518518519</v>
       </c>
-      <c r="Q2" s="1">
-        <f>F2+I2+L2+O2</f>
-        <v>0.15831018518518519</v>
-      </c>
-      <c r="S2" s="1">
+      <c r="R2" s="1">
         <f>B18</f>
         <v>0.10769675925925926</v>
       </c>
-      <c r="T2" s="1">
+      <c r="S2" s="1">
         <f>B19</f>
         <v>0.15831018518518519</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1206,13 +1194,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
       </c>
       <c r="F3" s="1">
         <f>G3</f>
@@ -1223,7 +1211,7 @@
         <v>3.0462962962962966E-2</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1">
         <f>J3-G3</f>
@@ -1234,41 +1222,37 @@
         <v>7.1620370370370376E-2</v>
       </c>
       <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1">
+        <f>R3-MIN(L$10,J3)</f>
+        <v>4.5532407407407424E-2</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1171527777777778</v>
+      </c>
+      <c r="N3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="1">
-        <f t="shared" si="0"/>
-        <v>4.5532407407407424E-2</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="O3" s="1">
+        <f>S3-MIN(O$10,R3)</f>
+        <v>0.89195601851851847</v>
+      </c>
+      <c r="P3" s="1">
         <f t="shared" si="1"/>
-        <v>0.1171527777777778</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="1">
-        <f t="shared" si="2"/>
-        <v>0.89195601851851847</v>
-      </c>
-      <c r="P3" s="1">
-        <f t="shared" si="3"/>
         <v>1.0091087962962964</v>
       </c>
-      <c r="Q3" s="1">
-        <f>F3+I3+L3+O3</f>
-        <v>1.0091087962962964</v>
-      </c>
-      <c r="S3" s="1">
+      <c r="R3" s="1">
         <f>B22</f>
         <v>0.10803240740740742</v>
       </c>
-      <c r="T3" s="1">
+      <c r="S3" s="1">
         <f>B23</f>
         <v>0.99998842592592585</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1276,13 +1260,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
       </c>
       <c r="F4" s="1">
         <f>G4</f>
@@ -1293,7 +1277,7 @@
         <v>3.123842592592593E-2</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="1">
         <f>J4-G4</f>
@@ -1304,10 +1288,10 @@
         <v>7.2083333333333333E-2</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L4" s="1">
-        <f>S4-MIN(L$10,J4)</f>
+        <f>R4-MIN(L$10,J4)</f>
         <v>4.5821759259259257E-2</v>
       </c>
       <c r="M4" s="1">
@@ -1315,30 +1299,26 @@
         <v>0.11790509259259259</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O4" s="1">
-        <f>T4-MIN(O$10,S4)</f>
+        <f>S4-MIN(O$10,R4)</f>
         <v>5.0347222222222224E-2</v>
       </c>
       <c r="P4" s="1">
         <f>M4+O4</f>
         <v>0.16825231481481481</v>
       </c>
-      <c r="Q4" s="1">
-        <f>F4+I4+L4+O4</f>
-        <v>0.16825231481481481</v>
-      </c>
-      <c r="S4" s="1">
+      <c r="R4" s="1">
         <f>B26</f>
         <v>0.10832175925925926</v>
       </c>
-      <c r="T4" s="1">
+      <c r="S4" s="1">
         <f>B27</f>
         <v>0.15866898148148148</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1346,13 +1326,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
       </c>
       <c r="F5" s="1">
         <f>G5</f>
@@ -1363,7 +1343,7 @@
         <v>3.1655092592592596E-2</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1">
         <f>J5-G5</f>
@@ -1374,52 +1354,48 @@
         <v>7.4571759259259254E-2</v>
       </c>
       <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="1">
+        <f>R5-MIN(L$10,J5)</f>
+        <v>4.5949074074074073E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12052083333333333</v>
+      </c>
+      <c r="N5" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="1">
-        <f t="shared" ref="L5:L6" si="4">S5-MIN(L$10,J5)</f>
-        <v>4.5949074074074073E-2</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.12052083333333333</v>
-      </c>
-      <c r="N5" t="s">
-        <v>33</v>
-      </c>
       <c r="O5" s="1">
-        <f t="shared" si="2"/>
+        <f>S5-MIN(O$10,R5)</f>
         <v>5.0937499999999997E-2</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" ref="P5:P6" si="5">M5+O5</f>
+        <f t="shared" ref="P5:P6" si="2">M5+O5</f>
         <v>0.17145833333333332</v>
       </c>
-      <c r="Q5" s="1">
-        <f>F5+I5+L5+O5</f>
-        <v>0.17145833333333332</v>
-      </c>
-      <c r="S5" s="1">
+      <c r="R5" s="1">
         <f>B30</f>
         <v>0.10844907407407407</v>
       </c>
-      <c r="T5" s="1">
+      <c r="S5" s="1">
         <f>B31</f>
         <v>0.15927083333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
       </c>
       <c r="F6" s="1">
         <f>G6</f>
@@ -1430,7 +1406,7 @@
         <v>3.1747685185185184E-2</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" s="1">
         <f>J6-G6</f>
@@ -1441,53 +1417,49 @@
         <v>7.481481481481482E-2</v>
       </c>
       <c r="K6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="1">
+        <f>R6-MIN(L$10,J6)</f>
+        <v>4.6747685185185184E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1215625</v>
+      </c>
+      <c r="N6" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="1">
-        <f t="shared" si="4"/>
-        <v>4.6747685185185184E-2</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1215625</v>
-      </c>
-      <c r="N6" t="s">
-        <v>39</v>
-      </c>
       <c r="O6" s="1">
+        <f>S6-MIN(O$10,R6)</f>
+        <v>5.1296296296296312E-2</v>
+      </c>
+      <c r="P6" s="1">
         <f t="shared" si="2"/>
-        <v>5.1296296296296312E-2</v>
-      </c>
-      <c r="P6" s="1">
-        <f t="shared" si="5"/>
         <v>0.1728587962962963</v>
       </c>
-      <c r="Q6" s="1">
-        <f>F6+I6+L6+O6</f>
-        <v>0.1728587962962963</v>
-      </c>
-      <c r="S6" s="1">
+      <c r="R6" s="1">
         <f>B34</f>
         <v>0.10924768518518518</v>
       </c>
-      <c r="T6" s="1">
+      <c r="S6" s="1">
         <f>B35</f>
         <v>0.15962962962962965</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="L10" s="4">
         <v>6.25E-2</v>
@@ -1497,36 +1469,36 @@
       </c>
       <c r="P10" s="4"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -1543,7 +1515,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -1557,7 +1529,7 @@
         <v>6.0416666666666667E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -1571,7 +1543,7 @@
         <v>0.10769675925925926</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -1585,7 +1557,7 @@
         <v>0.15831018518518519</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -1599,7 +1571,7 @@
         <v>3.0462962962962966E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>2</v>
       </c>
@@ -1613,7 +1585,7 @@
         <v>7.1620370370370376E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>2</v>
       </c>
@@ -1626,15 +1598,8 @@
       <c r="E22" s="1">
         <v>0.10803240740740742</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>2</v>
       </c>
@@ -1647,15 +1612,13 @@
       <c r="E23" s="1">
         <v>0.99998842592592585</v>
       </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -1668,15 +1631,13 @@
       <c r="E24" s="1">
         <v>3.123842592592593E-2</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -1689,15 +1650,13 @@
       <c r="E25" s="1">
         <v>7.2083333333333333E-2</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>3</v>
       </c>
@@ -1710,15 +1669,13 @@
       <c r="E26" s="1">
         <v>0.10832175925925926</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>3</v>
       </c>
@@ -1732,7 +1689,7 @@
         <v>0.15866898148148148</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>4</v>
       </c>
@@ -1746,7 +1703,7 @@
         <v>3.1655092592592596E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>4</v>
       </c>
@@ -1760,7 +1717,7 @@
         <v>7.4571759259259254E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -1774,7 +1731,7 @@
         <v>0.10844907407407407</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>4</v>
       </c>
@@ -1788,7 +1745,7 @@
         <v>0.15927083333333333</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>5</v>
       </c>
@@ -1845,7 +1802,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:T6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:S6">
     <sortCondition ref="B2:B6"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/devils_burdens/mass_start_3_4/dnf_leg_4/master.xlsx
+++ b/src/test/resources/devils_burdens/mass_start_3_4/dnf_leg_4/master.xlsx
@@ -80,7 +80,7 @@
     <t>Leg 4</t>
   </si>
   <si>
-    <t>Anster Haddies Ladies B</t>
+    <t>Team 1</t>
   </si>
   <si>
     <t>Women Senior</t>
@@ -98,7 +98,7 @@
     <t>Rosie Knox</t>
   </si>
   <si>
-    <t>Anster Haddies Mens 1</t>
+    <t>Team 2</t>
   </si>
   <si>
     <t>Open 50+</t>
